--- a/Consultant_Active_Reports/Active_Candidates_James_Whipp.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_James_Whipp.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,35 +555,35 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>714</v>
+        <v>677</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cognition AI</t>
+          <t>PointFive</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Forward Deployed Engineer / Sales Engineer (Middle East)</t>
+          <t>VP EMEA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Andrej Chomutovskij</t>
+          <t>Peter Reeve</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45983</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -592,21 +592,21 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Forward Deployed Engineer / Sales Engineer (Middle East)</t>
+          <t>Forward Deployed Engineer / Sales Engineer (UK)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Oliver Waterman</t>
+          <t>Simone Malekar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45983</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aamer Mushtaq</t>
+          <t>Andrej Chomutovskij</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -635,6 +635,90 @@
       </c>
       <c r="F7" s="2" t="n">
         <v>45983</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>714</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cognition AI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Forward Deployed Engineer / Sales Engineer (Middle East)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Oliver Waterman</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>714</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cognition AI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Forward Deployed Engineer / Sales Engineer (Middle East)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Aamer Mushtaq</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>714</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cognition AI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Forward Deployed Engineer / Sales Engineer (Middle East)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JOSHUA TANNER</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45991</v>
       </c>
     </row>
   </sheetData>

--- a/Consultant_Active_Reports/Active_Candidates_James_Whipp.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_James_Whipp.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jeremy Perlman</t>
+          <t>Jeff Ganon</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45993</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="3">
@@ -513,16 +513,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Patrick Wittenberg</t>
+          <t>Jeremy Perlman</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45992</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="4">
@@ -541,16 +541,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jeff Ganon</t>
+          <t>Patrick Wittenberg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45988</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="5">
@@ -597,7 +597,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Simone Malekar</t>
+          <t>Andrej Chomutovskij</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -611,7 +611,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -620,26 +620,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Forward Deployed Engineer / Sales Engineer (Middle East)</t>
+          <t>Forward Deployed Engineer / Sales Engineer (UK)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Andrej Chomutovskij</t>
+          <t>Ciaran Deasy</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45983</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -648,26 +648,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Forward Deployed Engineer / Sales Engineer (Middle East)</t>
+          <t>Forward Deployed Engineer / Sales Engineer (UK)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Oliver Waterman</t>
+          <t>Michel Kiffel</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45991</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -676,21 +676,21 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Forward Deployed Engineer / Sales Engineer (Middle East)</t>
+          <t>Forward Deployed Engineer / Sales Engineer (UK)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aamer Mushtaq</t>
+          <t>Simone Malekar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45983</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="10">
@@ -709,15 +709,99 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Aamer Mushtaq</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>714</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cognition AI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Forward Deployed Engineer / Sales Engineer (Middle East)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Andrej Chomutovskij</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>714</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cognition AI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Forward Deployed Engineer / Sales Engineer (Middle East)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>JOSHUA TANNER</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1st Interview</t>
         </is>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F12" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>714</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cognition AI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Forward Deployed Engineer / Sales Engineer (Middle East)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Oliver Waterman</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>45991</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_James_Whipp.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_James_Whipp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,12 +676,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>JOSHUA TANNER</t>
+          <t>Aamer Mushtaq</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aamer Mushtaq</t>
+          <t>Andrej Chomutovskij</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Andrej Chomutovskij</t>
+          <t>JOSHUA TANNER</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -762,26 +762,26 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Honeycomb</t>
+          <t>TraceBit</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>VP EMEA</t>
+          <t>Tracebit CSE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Peter Reeve</t>
+          <t>Jeffery Garza</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Zach Burns</t>
+          <t>Sina T.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jeffery Garza</t>
+          <t>Zach Burns</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -837,49 +837,24 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TraceBit</t>
+          <t>Maze</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tracebit CSE</t>
+          <t>Technical Success Manager</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sina T.</t>
+          <t>Zach Burns</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>841</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Maze</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Technical Success Manager</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Zach Burns</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>CV Sent</t>
         </is>
